--- a/InterviewTest/output/230001/230001_failed.xlsx
+++ b/InterviewTest/output/230001/230001_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{110F8A8E-7107-4126-901A-7906F27F04DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9622CC-144E-4814-88E4-A29DF6920D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/InterviewTest/output/230001/230001_failed.xlsx
+++ b/InterviewTest/output/230001/230001_failed.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\n\Downloads\rpa test\MemoAgilityTest\InterviewTest\output\230001\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9622CC-144E-4814-88E4-A29DF6920D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A652480F-F52A-40CC-85D7-BF3F9A0E8A57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="21600" windowHeight="11295" xr2:uid="{E5EC0C5E-A682-4487-9C0E-D4EA5197474C}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
